--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value186.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value186.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.12619461096698</v>
+        <v>7.217020034790039</v>
       </c>
       <c r="B1">
-        <v>1.503676958033719</v>
+        <v>5.770425796508789</v>
       </c>
       <c r="C1">
-        <v>2.443898962432766</v>
+        <v>15</v>
       </c>
       <c r="D1">
-        <v>3.345668855816019</v>
+        <v>4.544404029846191</v>
       </c>
       <c r="E1">
-        <v>0.7264204954968072</v>
+        <v>2.114849805831909</v>
       </c>
     </row>
   </sheetData>
